--- a/validate/AUC_mesh_2020_completed.xlsx
+++ b/validate/AUC_mesh_2020_completed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Research\Projects\ihbi\aushsi\aushsi_barnetta\meta.research\text.mining\AUC\validate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F8F868-E6F8-465E-AA1A-364D7B750B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04155200-38F9-4989-829D-601C2E5C1AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -674,9 +674,6 @@
     <t>0.86, 0.84, 0.91</t>
   </si>
   <si>
-    <t>0.58, 0.46, 0.7</t>
-  </si>
-  <si>
     <t>0.723, 0.694, 0.753, 0.733, 0.702, 0.763, 0.724, 0.673, 0.774, 0.725, 0.672, 0.788</t>
   </si>
   <si>
@@ -786,6 +783,9 @@
   </si>
   <si>
     <t>0.699, 0.605, 0.793</t>
+  </si>
+  <si>
+    <t>0.58, 0.46, 0.7, 0.72, 0.56, 0.88</t>
   </si>
 </sst>
 </file>
@@ -1159,8 +1159,8 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1350,7 @@
         <v>458</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="330" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>1618</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="150" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="300" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="300" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
         <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>515</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
         <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1489,7 +1489,7 @@
         <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -1500,10 +1500,10 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" t="s">
         <v>221</v>
-      </c>
-      <c r="D26" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
         <v>2711</v>
       </c>
       <c r="D31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
         <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="345" x14ac:dyDescent="0.25">
@@ -1678,7 +1678,7 @@
         <v>216</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>533</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="390" x14ac:dyDescent="0.25">
@@ -1706,7 +1706,7 @@
         <v>3050</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="285" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
         <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
         <v>330</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -1745,7 +1745,7 @@
         <v>350</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -1812,7 +1812,7 @@
         <v>1293</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -1944,7 +1944,7 @@
         <v>20796</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -1969,7 +1969,7 @@
         <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -1983,7 +1983,7 @@
         <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="360" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>162</v>
       </c>
       <c r="D70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
         <v>12009</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
         <v>321</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>279</v>
       </c>
       <c r="D76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>46</v>
       </c>
       <c r="D83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
         <v>177</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>2143</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
         <v>250</v>
       </c>
       <c r="D93" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="330" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>193</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -2343,7 +2343,7 @@
         <v>81</v>
       </c>
       <c r="D97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="285" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
         <v>150</v>
       </c>
       <c r="D98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="195" x14ac:dyDescent="0.25">
